--- a/SuRGE_Sharepoint/data/CIN/CH4_157_Storrie/dataSheets/surgeData157.xlsx
+++ b/SuRGE_Sharepoint/data/CIN/CH4_157_Storrie/dataSheets/surgeData157.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/CIN/CH4_157_Storrie/dataSheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/beaulieu_jake_epa_gov/Documents/gitRepository/SuRGE/SuRGE_Sharepoint/data/CIN/CH4_157_Storrie/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1511" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1ECEC367-A54F-4FF1-82A8-F3682F4E2713}"/>
+  <xr:revisionPtr revIDLastSave="1512" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8130F79-AF13-467E-8D59-245CE683D8AA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="34560" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1360,9 +1360,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1400,7 +1400,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1506,7 +1506,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1648,7 +1648,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1659,77 +1659,77 @@
   <dimension ref="A1:BZ19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J18" sqref="J18"/>
+      <pane xSplit="2" topLeftCell="BA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BX4" sqref="BX4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.42578125" customWidth="1"/>
-    <col min="30" max="30" width="5.5703125" customWidth="1"/>
-    <col min="31" max="31" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.44140625" customWidth="1"/>
+    <col min="30" max="30" width="5.5546875" customWidth="1"/>
+    <col min="31" max="31" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="6.42578125" customWidth="1"/>
-    <col min="51" max="51" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="64" max="66" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.44140625" customWidth="1"/>
+    <col min="51" max="51" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="66" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="18" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="24.140625" customWidth="1"/>
+    <col min="70" max="70" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>54</v>
       </c>
@@ -1821,7 +1821,7 @@
       <c r="BY1" s="32"/>
       <c r="BZ1" s="32"/>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>161</v>
       </c>
@@ -2154,15 +2154,6 @@
       <c r="BE3">
         <v>54</v>
       </c>
-      <c r="BT3" t="s">
-        <v>182</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>183</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>184</v>
-      </c>
       <c r="BW3">
         <v>2.0699999999999998</v>
       </c>
@@ -2176,7 +2167,7 @@
         <v>0.77986111111111101</v>
       </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>161</v>
       </c>
@@ -2276,8 +2267,17 @@
       <c r="BE4">
         <v>35.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.25">
+      <c r="BT4" t="s">
+        <v>182</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>183</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>161</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>161</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>161</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>161</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>161</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>161</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>161</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>161</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>161</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>161</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>161</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>161</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>161</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>64.3</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>161</v>
       </c>
@@ -3517,7 +3517,7 @@
       <c r="I18" s="26"/>
       <c r="U18" s="27"/>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>161</v>
       </c>
@@ -3551,14 +3551,14 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.7109375" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.6640625" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>135</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>193</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>194</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>195</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>196</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>148</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>159</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>149</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>203</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>154</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>139</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>140</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>141</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>150</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>205</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>142</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>32</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>151</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>160</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>40</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>41</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>42</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>43</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>152</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>207</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>44</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>143</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>144</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>145</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>146</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>153</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>209</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>147</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>49</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>50</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>51</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>52</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>53</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>157</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>158</v>
       </c>
@@ -4341,17 +4341,17 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="25"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="25"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>59</v>
       </c>
@@ -4367,7 +4367,7 @@
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
@@ -4401,7 +4401,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>161</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>161</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>161</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>161</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>161</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>161</v>
       </c>
@@ -4592,14 +4592,14 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.5703125" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>135</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>45</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>46</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>47</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>48</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>123</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>124</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>125</v>
       </c>
@@ -4712,62 +4712,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d40b3e6283001fb57e5088f84fb23d5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aadbb8160917885bdc8cfb32badaafe9" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5238,7 +5182,102 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F113896-8C4C-43AA-B27A-761A581C3BEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="8b03727f-4454-4722-b3e6-018d8dcaf2fd"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5250,24 +5289,4 @@
     <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F113896-8C4C-43AA-B27A-761A581C3BEE}"/>
 </file>
--- a/SuRGE_Sharepoint/data/CIN/CH4_157_Storrie/dataSheets/surgeData157.xlsx
+++ b/SuRGE_Sharepoint/data/CIN/CH4_157_Storrie/dataSheets/surgeData157.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/beaulieu_jake_epa_gov/Documents/gitRepository/SuRGE/SuRGE_Sharepoint/data/CIN/CH4_157_Storrie/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1512" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8130F79-AF13-467E-8D59-245CE683D8AA}"/>
+  <xr:revisionPtr revIDLastSave="1513" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E996CC9D-80EB-4A4B-B64A-103BB8AD13F3}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="34560" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-4830" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1359,6 +1359,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -1659,8 +1663,8 @@
   <dimension ref="A1:BZ19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BX4" sqref="BX4"/>
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G3" sqref="G3:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2077,7 +2081,7 @@
         <v>190</v>
       </c>
       <c r="G3" s="26">
-        <v>0.23055555555555554</v>
+        <v>0.73055555555555562</v>
       </c>
       <c r="H3" t="s">
         <v>191</v>
@@ -2187,7 +2191,7 @@
         <v>190</v>
       </c>
       <c r="G4" s="26">
-        <v>0.2388888888888889</v>
+        <v>0.73888888888888893</v>
       </c>
       <c r="H4" t="s">
         <v>191</v>
@@ -2297,7 +2301,7 @@
         <v>190</v>
       </c>
       <c r="G5" s="26">
-        <v>0.32777777777777778</v>
+        <v>0.82777777777777783</v>
       </c>
       <c r="H5" t="s">
         <v>191</v>
@@ -2395,7 +2399,7 @@
         <v>190</v>
       </c>
       <c r="G6" s="26">
-        <v>0.22569444444444445</v>
+        <v>0.72569444444444453</v>
       </c>
       <c r="H6" t="s">
         <v>191</v>
@@ -2493,7 +2497,7 @@
         <v>190</v>
       </c>
       <c r="G7" s="26">
-        <v>0.25555555555555559</v>
+        <v>0.75555555555555554</v>
       </c>
       <c r="H7" t="s">
         <v>191</v>
@@ -2591,7 +2595,7 @@
         <v>190</v>
       </c>
       <c r="G8" s="26">
-        <v>0.26041666666666669</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="H8" t="s">
         <v>191</v>
@@ -2689,7 +2693,7 @@
         <v>190</v>
       </c>
       <c r="G9" s="26">
-        <v>0.27777777777777779</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="H9" t="s">
         <v>191</v>
@@ -2787,7 +2791,7 @@
         <v>190</v>
       </c>
       <c r="G10" s="26">
-        <v>0.26874999999999999</v>
+        <v>0.76874999999999993</v>
       </c>
       <c r="H10" t="s">
         <v>191</v>
@@ -2861,7 +2865,7 @@
         <v>190</v>
       </c>
       <c r="G11" s="26">
-        <v>0.27430555555555552</v>
+        <v>0.77430555555555547</v>
       </c>
       <c r="H11" t="s">
         <v>191</v>
@@ -2959,7 +2963,7 @@
         <v>190</v>
       </c>
       <c r="G12" s="26">
-        <v>0.30277777777777776</v>
+        <v>0.8027777777777777</v>
       </c>
       <c r="H12" t="s">
         <v>191</v>
@@ -3057,7 +3061,7 @@
         <v>190</v>
       </c>
       <c r="G13" s="26">
-        <v>0.29930555555555555</v>
+        <v>0.7993055555555556</v>
       </c>
       <c r="H13" t="s">
         <v>191</v>
@@ -3155,7 +3159,7 @@
         <v>190</v>
       </c>
       <c r="G14" s="26">
-        <v>0.29652777777777778</v>
+        <v>0.79652777777777783</v>
       </c>
       <c r="H14" t="s">
         <v>191</v>
@@ -3253,7 +3257,7 @@
         <v>190</v>
       </c>
       <c r="G15" s="26">
-        <v>0.31388888888888888</v>
+        <v>0.81388888888888899</v>
       </c>
       <c r="H15" t="s">
         <v>191</v>
@@ -3327,7 +3331,7 @@
         <v>190</v>
       </c>
       <c r="G16" s="26">
-        <v>0.3215277777777778</v>
+        <v>0.82152777777777775</v>
       </c>
       <c r="H16" t="s">
         <v>191</v>
@@ -3425,7 +3429,7 @@
         <v>190</v>
       </c>
       <c r="G17" s="26">
-        <v>0.31041666666666667</v>
+        <v>0.81041666666666667</v>
       </c>
       <c r="H17" t="s">
         <v>191</v>
@@ -5183,20 +5187,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
@@ -5238,6 +5228,20 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F113896-8C4C-43AA-B27A-761A581C3BEE}">
   <ds:schemaRefs>
@@ -5262,9 +5266,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5278,15 +5288,9 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
-    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>